--- a/gantt_chart_project_plan.xlsx
+++ b/gantt_chart_project_plan.xlsx
@@ -8,42 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielklass/Dropbox/GaTech/cse6242_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB4EC8E-264A-4B43-9724-74619A8B7394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7CD38A-84AA-A243-B2B4-A4149E4CAB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="440" windowWidth="24840" windowHeight="28360" xr2:uid="{7361172A-1EC7-8B42-8F6F-CEFE35A9BD9E}"/>
+    <workbookView xWindow="1520" yWindow="440" windowWidth="24840" windowHeight="28360" activeTab="1" xr2:uid="{7361172A-1EC7-8B42-8F6F-CEFE35A9BD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Jon's Recommendations" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$26</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$32</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$1</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$2:$G$32</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -61,10 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
-  <si>
-    <t>Form Team</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Done</t>
   </si>
@@ -78,45 +75,15 @@
     <t>Due_Date</t>
   </si>
   <si>
-    <t>Download Movielens</t>
-  </si>
-  <si>
-    <t>Download OMDB</t>
-  </si>
-  <si>
-    <t>Proposal Due</t>
-  </si>
-  <si>
     <t>Start_Date</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Brainstorm Ideas</t>
-  </si>
-  <si>
-    <t>Implement TSNE</t>
-  </si>
-  <si>
-    <t>D3 Skeleton</t>
-  </si>
-  <si>
     <t>Progress Report</t>
   </si>
   <si>
-    <t>D3 Polish</t>
-  </si>
-  <si>
-    <t>Algorithm Polish</t>
-  </si>
-  <si>
-    <t>Option 1: Implement Word2Vec Algo</t>
-  </si>
-  <si>
-    <t>Option 2: Implement Matrix Factorization Algo</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -129,12 +96,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Days_Since_Start</t>
-  </si>
-  <si>
-    <t>Days_Left</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -150,9 +111,6 @@
     <t>&gt;Paper: All</t>
   </si>
   <si>
-    <t>Opt 1: Implement Word2Vec Algo (Daniel, Yi)</t>
-  </si>
-  <si>
     <t>Experimental Coding (Daniel, Yi: Done)</t>
   </si>
   <si>
@@ -168,24 +126,6 @@
     <t>Download OMDB (Yi: Done)</t>
   </si>
   <si>
-    <t>Implement TSNE (Jonathan)</t>
-  </si>
-  <si>
-    <t>D3 Polish (All?)</t>
-  </si>
-  <si>
-    <t>&gt;Word2Vec (Yi, Daniel)</t>
-  </si>
-  <si>
-    <t>&gt;TSNE (Jonathan, Rocko)</t>
-  </si>
-  <si>
-    <t>Opt 2: Implement Matrix Factor Algo (Jonathan, Yi)</t>
-  </si>
-  <si>
-    <t>&gt;Matrix Factor (Yi, Jonathan)</t>
-  </si>
-  <si>
     <t>&gt;Video (each of us, individually)</t>
   </si>
   <si>
@@ -204,22 +144,152 @@
     <t>&gt;LaTeX Compile &amp; Submission: Rocko</t>
   </si>
   <si>
-    <t>=============Coding Work=============</t>
-  </si>
-  <si>
     <t>============Algorithm Polish============</t>
   </si>
   <si>
     <t>==============Final Report==============</t>
   </si>
   <si>
-    <t>D3 Skeleton (Rocko)</t>
+    <t>Coallate MovieLens and OMBD Data (Jonathan)</t>
+  </si>
+  <si>
+    <t>Pre-cluster movies</t>
+  </si>
+  <si>
+    <t>GUI refinement</t>
+  </si>
+  <si>
+    <t>Create OMDB API Script (Jonathan: Done)</t>
+  </si>
+  <si>
+    <t>======Collaborative Filtering Engine======</t>
+  </si>
+  <si>
+    <t>=======Visualization Preprocessing=======</t>
+  </si>
+  <si>
+    <t>&gt;Plot projected movies (All)</t>
+  </si>
+  <si>
+    <t>&gt;Embed Movies in Taste Space</t>
+  </si>
+  <si>
+    <t>&gt;Implement TSNE (Rocko, Jonathan)</t>
+  </si>
+  <si>
+    <t>&gt;Pre-cluster movies (Rocko, Jonathan)</t>
+  </si>
+  <si>
+    <t>&gt;Understand MovieExplorer Code/Algo</t>
+  </si>
+  <si>
+    <t>&gt;Implement Exploration Code (no UI) (Yi, Rocko)</t>
+  </si>
+  <si>
+    <t>=======Implement MovieExplorer========</t>
+  </si>
+  <si>
+    <t>&gt;Implement Matrix Factor Algo (Jonathan)</t>
+  </si>
+  <si>
+    <t>&gt;Implement Word2Vec Algo (Daniel, Yi)</t>
+  </si>
+  <si>
+    <t>&gt;GUI initial build (All)</t>
+  </si>
+  <si>
+    <t>&gt;GUI Refinement (All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What </t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>Rocko</t>
+  </si>
+  <si>
+    <t>Collate movielens, OMDB data</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Collaborative filtering engine</t>
+  </si>
+  <si>
+    <t>Matrix factorisation</t>
+  </si>
+  <si>
+    <t>Word2vec</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Implement MovieExplorer</t>
+  </si>
+  <si>
+    <t>Understand MovieExplorer code/algo</t>
+  </si>
+  <si>
+    <t>Yi</t>
+  </si>
+  <si>
+    <t>Implement Exploration code (no UI)</t>
+  </si>
+  <si>
+    <t>Yi, Rocko</t>
+  </si>
+  <si>
+    <t>Vis - preprocessing</t>
+  </si>
+  <si>
+    <t>Embed movies in taste space</t>
+  </si>
+  <si>
+    <t>Daniel,Yi</t>
+  </si>
+  <si>
+    <t>T-SNE projection</t>
+  </si>
+  <si>
+    <t>Rocko, Jonathan</t>
+  </si>
+  <si>
+    <t>Write progress report</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Visualisation and Interface</t>
+  </si>
+  <si>
+    <t>Plotting projected movies</t>
+  </si>
+  <si>
+    <t>GUI intial build</t>
+  </si>
+  <si>
+    <t>Write final report and poster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -249,11 +319,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,9 +464,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Form Team (All: Done)</c:v>
                 </c:pt>
@@ -391,100 +474,118 @@
                   <c:v>Brainstorm Ideas (All: Done)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Create OMDB API Script (Jonathan: Done)</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Download Movielens (All: Done)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Download OMDB (Yi: Done)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Experimental Coding (Daniel, Yi: Done)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>Coallate MovieLens and OMBD Data (Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>========Project Proposal Due (All)========</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>&gt;LaTeX Compile &amp; Submission: Rocko</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>&gt;Paper: All</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>&gt;Slides: Rocko</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>&gt;Video: Daniel</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>&gt;LaTeX Compile &amp; Submission: Rocko</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>=============Coding Work=============</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Opt 1: Implement Word2Vec Algo (Daniel, Yi)</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Opt 2: Implement Matrix Factor Algo (Jonathan, Yi)</c:v>
+                  <c:v>=======Implement MovieExplorer========</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Implement TSNE (Jonathan)</c:v>
+                  <c:v>&gt;Understand MovieExplorer Code/Algo</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>D3 Skeleton (Rocko)</c:v>
+                  <c:v>&gt;Implement Exploration Code (no UI) (Yi, Rocko)</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>======Collaborative Filtering Engine======</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>&gt;Implement Matrix Factor Algo (Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>&gt;Implement Word2Vec Algo (Daniel, Yi)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>=======Visualization Preprocessing=======</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>&gt;Embed Movies in Taste Space</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>&gt;Implement TSNE (Rocko, Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>&gt;Pre-cluster movies (Rocko, Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>==========Progress Report (All)==========</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>D3 Polish (All?)</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>============Algorithm Polish============</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>&gt;Word2Vec (Yi, Daniel)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>&gt;Matrix Factor (Yi, Jonathan)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>&gt;TSNE (Jonathan, Rocko)</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
+                  <c:v>&gt;GUI initial build (All)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>&gt;Plot projected movies (All)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>&gt;GUI Refinement (All)</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>==============Final Report==============</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
+                  <c:v>&gt;Final Shared Poster (Rocko)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>&gt;Peer Grading (each of us, individually)</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>&gt;Video (each of us, individually)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>&gt;Final Shared Poster (Rocko)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>&gt;Peer Grading (each of us, individually)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>Sheet1!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43728</c:v>
+                  <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43728</c:v>
+                  <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43728</c:v>
+                  <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43728</c:v>
+                  <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43728</c:v>
+                  <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43728</c:v>
@@ -499,10 +600,10 @@
                   <c:v>43728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43749</c:v>
+                  <c:v>43728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43749</c:v>
+                  <c:v>43728</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43749</c:v>
@@ -511,36 +612,54 @@
                   <c:v>43749</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43770</c:v>
+                  <c:v>43751</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43749</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>43749</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43749</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43749</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>43777</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43777</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>43784</c:v>
                 </c:pt>
               </c:numCache>
@@ -580,9 +699,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Form Team (All: Done)</c:v>
                 </c:pt>
@@ -590,103 +709,121 @@
                   <c:v>Brainstorm Ideas (All: Done)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Create OMDB API Script (Jonathan: Done)</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Download Movielens (All: Done)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Download OMDB (Yi: Done)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Experimental Coding (Daniel, Yi: Done)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>Coallate MovieLens and OMBD Data (Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>========Project Proposal Due (All)========</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>&gt;LaTeX Compile &amp; Submission: Rocko</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>&gt;Paper: All</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>&gt;Slides: Rocko</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>&gt;Video: Daniel</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>&gt;LaTeX Compile &amp; Submission: Rocko</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>=============Coding Work=============</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Opt 1: Implement Word2Vec Algo (Daniel, Yi)</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Opt 2: Implement Matrix Factor Algo (Jonathan, Yi)</c:v>
+                  <c:v>=======Implement MovieExplorer========</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Implement TSNE (Jonathan)</c:v>
+                  <c:v>&gt;Understand MovieExplorer Code/Algo</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>D3 Skeleton (Rocko)</c:v>
+                  <c:v>&gt;Implement Exploration Code (no UI) (Yi, Rocko)</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>======Collaborative Filtering Engine======</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>&gt;Implement Matrix Factor Algo (Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>&gt;Implement Word2Vec Algo (Daniel, Yi)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>=======Visualization Preprocessing=======</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>&gt;Embed Movies in Taste Space</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>&gt;Implement TSNE (Rocko, Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>&gt;Pre-cluster movies (Rocko, Jonathan)</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>==========Progress Report (All)==========</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>D3 Polish (All?)</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>============Algorithm Polish============</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>&gt;Word2Vec (Yi, Daniel)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>&gt;Matrix Factor (Yi, Jonathan)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>&gt;TSNE (Jonathan, Rocko)</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
+                  <c:v>&gt;GUI initial build (All)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>&gt;Plot projected movies (All)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>&gt;GUI Refinement (All)</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>==============Final Report==============</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
+                  <c:v>&gt;Final Shared Poster (Rocko)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>&gt;Peer Grading (each of us, individually)</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>&gt;Video (each of us, individually)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>&gt;Final Shared Poster (Rocko)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>&gt;Peer Grading (each of us, individually)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$26</c:f>
+              <c:f>Sheet1!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21</c:v>
@@ -704,42 +841,60 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -956,551 +1111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Days_Since_Start</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Form Team</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brainstorm Ideas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Download Movielens</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Download OMDB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Proposal Due</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Option 1: Implement Word2Vec Algo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Option 2: Implement Matrix Factorization Algo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Implement TSNE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>D3 Skeleton</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Progress Report</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>D3 Polish</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Algorithm Polish</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Final Report</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15FB-B340-8355-F200CACA8944}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Days_Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Form Team</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brainstorm Ideas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Download Movielens</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Download OMDB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Proposal Due</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Option 1: Implement Word2Vec Algo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Option 2: Implement Matrix Factorization Algo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Implement TSNE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>D3 Skeleton</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Progress Report</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>D3 Polish</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Algorithm Polish</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Final Report</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-15FB-B340-8355-F200CACA8944}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="948065072"/>
-        <c:axId val="948066704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="948065072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948066704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="948066704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948065072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2045,525 +1656,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2591,62 +1697,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02364A5-2B99-CE49-87F9-147690B8BDB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96C1107E-D5BA-504C-91CF-07ED301EF954}" name="Table1" displayName="Table1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{C7B8D0BF-7975-B541-8F5E-8B377F020DDE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96C1107E-D5BA-504C-91CF-07ED301EF954}" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0">
+  <autoFilter ref="A1:H32" xr:uid="{590C449D-E7D8-7A48-B732-FB801970D5EB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H32">
+    <sortCondition ref="F3:F32"/>
+    <sortCondition descending="1" ref="D3:D32"/>
+    <sortCondition descending="1" ref="G3:G32"/>
+    <sortCondition ref="A3:A32"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FE3A10B9-0894-E94D-BF9F-87958670CC26}" name="Task"/>
     <tableColumn id="2" xr3:uid="{FCD4639E-EB3A-D441-99C3-35F2C054F7D1}" name="Status"/>
     <tableColumn id="4" xr3:uid="{DC64AF6F-26E5-154F-9A61-43342781954F}" name="Start_Date_DateFormat"/>
     <tableColumn id="3" xr3:uid="{40AB447E-56A1-F64D-AC98-7D71D4A88DD4}" name="Due_Date"/>
-    <tableColumn id="9" xr3:uid="{23CE89C9-511C-2D42-A74F-80A2C333F65B}" name="Start" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{23CE89C9-511C-2D42-A74F-80A2C333F65B}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EBD51F91-B2DA-7A49-8BBC-8A9BBBA73285}" name="Start_Date" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{EBD51F91-B2DA-7A49-8BBC-8A9BBBA73285}" name="Start_Date" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Start_Date_DateFormat]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7419516-D744-2E4A-BA5A-070C5740BF62}" name="Duration" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{C7419516-D744-2E4A-BA5A-070C5740BF62}" name="Duration" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E2E87531-4227-A645-A153-6105C4D2ABD3}" name="Note"/>
@@ -2952,51 +2023,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463EE16C-606B-984A-A884-7D08EC404BBB}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A77" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>43721</v>
@@ -3019,140 +2091,143 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="D3" s="1">
-        <v>43749</v>
+        <v>43743</v>
       </c>
       <c r="E3" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="G3" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="D4" s="1">
-        <v>43749</v>
+        <v>43743</v>
       </c>
       <c r="E4" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="G4" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="D5" s="1">
-        <v>43749</v>
+        <v>43743</v>
       </c>
       <c r="E5" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="G5" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="D6" s="1">
-        <v>43749</v>
+        <v>43743</v>
       </c>
       <c r="E6" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="G6" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="D7" s="1">
-        <v>43749</v>
+        <v>43743</v>
       </c>
       <c r="E7" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="G7" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>43728</v>
       </c>
       <c r="D8" s="1">
-        <v>43749</v>
+        <v>43754</v>
       </c>
       <c r="E8" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
@@ -3164,12 +2239,12 @@
       </c>
       <c r="G8" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>43728</v>
@@ -3192,7 +2267,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>43728</v>
@@ -3215,7 +2290,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>43728</v>
@@ -3237,22 +2312,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="1">
+        <v>43728</v>
+      </c>
+      <c r="D12" s="1">
         <v>43749</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43770</v>
       </c>
       <c r="E12" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43749</v>
+        <v>43728</v>
       </c>
       <c r="G12" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
@@ -3261,117 +2336,113 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
+        <v>43728</v>
+      </c>
+      <c r="D13" s="1">
         <v>43749</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43770</v>
       </c>
       <c r="E13" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43749</v>
+        <v>43728</v>
       </c>
       <c r="G13" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
         <v>21</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6">
         <v>43749</v>
       </c>
-      <c r="D14" s="1">
-        <v>43770</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="6">
+        <v>43761</v>
+      </c>
+      <c r="E14" s="7">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
         <v>28</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="7">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
         <v>43749</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="7">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6">
         <v>43749</v>
       </c>
-      <c r="D15" s="1">
-        <v>43770</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="6">
+        <v>43751</v>
+      </c>
+      <c r="E15" s="7">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
         <v>28</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="7">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
         <v>43749</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="7">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43770</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43777</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6">
+        <v>43751</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43761</v>
+      </c>
+      <c r="E16" s="7">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>49</v>
-      </c>
-      <c r="F16" s="2">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43770</v>
-      </c>
-      <c r="G16" s="2">
+        <v>43751</v>
+      </c>
+      <c r="G16" s="7">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>43749</v>
       </c>
       <c r="D17" s="1">
-        <v>43777</v>
+        <v>43758</v>
       </c>
       <c r="E17" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
@@ -3383,236 +2454,415 @@
       </c>
       <c r="G17" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B18"/>
       <c r="C18" s="1">
-        <v>43777</v>
+        <v>43749</v>
       </c>
       <c r="D18" s="1">
-        <v>43784</v>
+        <v>43758</v>
       </c>
       <c r="E18" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43777</v>
+        <v>43749</v>
       </c>
       <c r="G18" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19"/>
       <c r="C19" s="1">
-        <v>43777</v>
+        <v>43749</v>
       </c>
       <c r="D19" s="1">
-        <v>43784</v>
+        <v>43758</v>
       </c>
       <c r="E19" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43777</v>
+        <v>43749</v>
       </c>
       <c r="G19" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20"/>
       <c r="C20" s="1">
-        <v>43777</v>
+        <v>43758</v>
       </c>
       <c r="D20" s="1">
-        <v>43784</v>
+        <v>43772</v>
       </c>
       <c r="E20" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43777</v>
+        <v>43758</v>
       </c>
       <c r="G20" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B21"/>
       <c r="C21" s="1">
-        <v>43777</v>
+        <v>43758</v>
       </c>
       <c r="D21" s="1">
-        <v>43784</v>
+        <v>43768</v>
       </c>
       <c r="E21" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43777</v>
+        <v>43758</v>
       </c>
       <c r="G21" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B22"/>
       <c r="C22" s="1">
-        <v>43777</v>
+        <v>43768</v>
       </c>
       <c r="D22" s="1">
-        <v>43784</v>
+        <v>43772</v>
       </c>
       <c r="E22" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43777</v>
+        <v>43768</v>
       </c>
       <c r="G22" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23"/>
       <c r="C23" s="1">
-        <v>43784</v>
+        <v>43768</v>
       </c>
       <c r="D23" s="1">
-        <v>43791</v>
+        <v>43772</v>
       </c>
       <c r="E23" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43784</v>
+        <v>43768</v>
       </c>
       <c r="G23" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24"/>
       <c r="C24" s="1">
-        <v>43784</v>
+        <v>43749</v>
       </c>
       <c r="D24" s="1">
-        <v>43791</v>
+        <v>43777</v>
       </c>
       <c r="E24" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43784</v>
+        <v>43749</v>
       </c>
       <c r="G24" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>42</v>
+      <c r="A25" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C25" s="1">
-        <v>43784</v>
+        <v>43777</v>
       </c>
       <c r="D25" s="1">
         <v>43791</v>
       </c>
       <c r="E25" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43784</v>
+        <v>43777</v>
       </c>
       <c r="G25" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>43784</v>
+        <v>43777</v>
       </c>
       <c r="D26" s="1">
         <v>43791</v>
       </c>
       <c r="E26" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2">
         <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
-        <v>43784</v>
+        <v>43777</v>
       </c>
       <c r="G26" s="2">
         <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43777</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43784</v>
+      </c>
+      <c r="E27" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
+        <v>56</v>
+      </c>
+      <c r="F27" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>43777</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
         <v>7</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43784</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43798</v>
+      </c>
+      <c r="E28" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
+        <v>63</v>
+      </c>
+      <c r="F28" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>43784</v>
+      </c>
+      <c r="G28" s="2">
+        <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43784</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43798</v>
+      </c>
+      <c r="E29" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
+        <v>63</v>
+      </c>
+      <c r="F29" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>43784</v>
+      </c>
+      <c r="G29" s="2">
+        <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43784</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43791</v>
+      </c>
+      <c r="E30" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
+        <v>63</v>
+      </c>
+      <c r="F30" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>43784</v>
+      </c>
+      <c r="G30" s="2">
+        <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43784</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43791</v>
+      </c>
+      <c r="E31" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
+        <v>63</v>
+      </c>
+      <c r="F31" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>43784</v>
+      </c>
+      <c r="G31" s="2">
+        <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
+      <c r="C32" s="1">
+        <v>43784</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43791</v>
+      </c>
+      <c r="E32" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]-MIN(Table1[Start_Date_DateFormat])</f>
+        <v>63</v>
+      </c>
+      <c r="F32" s="2">
+        <f>Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>43784</v>
+      </c>
+      <c r="G32" s="2">
+        <f>Table1[[#This Row],[Due_Date]]-Table1[[#This Row],[Start_Date_DateFormat]]</f>
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="9">
+        <f ca="1">TODAY()+5/24-18/24</f>
+        <v>43742.458333333336</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="8">
+        <f ca="1">NOW()+13.5/24</f>
+        <v>43744.374408449075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="b">
+        <f>"'"&gt;"&gt;"</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="9">
+        <f ca="1">NOW()+13.75/24</f>
+        <v>43744.38482511574</v>
+      </c>
+      <c r="C35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3624,171 +2874,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D5E425-D2DC-8E4F-8697-87D9127D1EE7}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC1758F-7DFD-1C4B-AA11-E6F3F5750601}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43751</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43754</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21</v>
+      <c r="A5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43758</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21</v>
+      <c r="A6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43758</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>21</v>
+      <c r="A8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43751</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2">
-        <v>21</v>
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43761</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
+      <c r="A10" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2">
-        <v>28</v>
+      <c r="A11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43768</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7</v>
+      <c r="A12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43772</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7</v>
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43772</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>63</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7</v>
+      <c r="A14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43798</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gantt_chart_project_plan.xlsx
+++ b/gantt_chart_project_plan.xlsx
@@ -1,51 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielklass/Dropbox/GaTech/cse6242_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7CD38A-84AA-A243-B2B4-A4149E4CAB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADB0EB-3899-7A44-AED4-B0859D03F96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="440" windowWidth="24840" windowHeight="28360" activeTab="1" xr2:uid="{7361172A-1EC7-8B42-8F6F-CEFE35A9BD9E}"/>
+    <workbookView xWindow="1600" yWindow="440" windowWidth="24840" windowHeight="28360" xr2:uid="{7361172A-1EC7-8B42-8F6F-CEFE35A9BD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Jon's Recommendations" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$32</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Done</t>
   </si>
@@ -280,6 +251,9 @@
   </si>
   <si>
     <t>Write final report and poster</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -287,8 +261,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -328,9 +302,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1005,7 +979,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2025,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463EE16C-606B-984A-A884-7D08EC404BBB}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,6 +2197,9 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" s="1">
         <v>43728</v>
       </c>
@@ -2246,6 +2223,9 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
       <c r="C9" s="1">
         <v>43728</v>
       </c>
@@ -2269,6 +2249,9 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
       <c r="C10" s="1">
         <v>43728</v>
       </c>
@@ -2292,6 +2275,9 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
       <c r="C11" s="1">
         <v>43728</v>
       </c>
@@ -2315,6 +2301,9 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
       <c r="C12" s="1">
         <v>43728</v>
       </c>
@@ -2338,6 +2327,9 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
       <c r="C13" s="1">
         <v>43728</v>
       </c>
@@ -2361,7 +2353,9 @@
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="C14" s="6">
         <v>43749</v>
       </c>
@@ -2386,7 +2380,9 @@
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="C15" s="6">
         <v>43749</v>
       </c>
@@ -2411,7 +2407,9 @@
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="C16" s="6">
         <v>43751</v>
       </c>
@@ -2438,6 +2436,9 @@
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
       <c r="C17" s="1">
         <v>43749</v>
       </c>
@@ -2461,7 +2462,9 @@
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
       <c r="C18" s="1">
         <v>43749</v>
       </c>
@@ -2488,7 +2491,9 @@
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
       <c r="C19" s="1">
         <v>43749</v>
       </c>
@@ -2515,7 +2520,9 @@
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" s="1">
         <v>43758</v>
       </c>
@@ -2540,7 +2547,9 @@
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
       <c r="C21" s="1">
         <v>43758</v>
       </c>
@@ -2565,7 +2574,9 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
       <c r="C22" s="1">
         <v>43768</v>
       </c>
@@ -2592,7 +2603,9 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
       <c r="C23" s="1">
         <v>43768</v>
       </c>
@@ -2617,7 +2630,9 @@
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
       <c r="C24" s="1">
         <v>43749</v>
       </c>
@@ -2845,12 +2860,12 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <f ca="1">TODAY()+5/24-18/24</f>
-        <v>43742.458333333336</v>
+        <v>43763.458333333336</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="8">
         <f ca="1">NOW()+13.5/24</f>
-        <v>43744.374408449075</v>
+        <v>43765.106666435182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,7 +2875,7 @@
       </c>
       <c r="B35" s="9">
         <f ca="1">NOW()+13.75/24</f>
-        <v>43744.38482511574</v>
+        <v>43765.117083101846</v>
       </c>
       <c r="C35" s="10"/>
     </row>
@@ -2877,7 +2892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC1758F-7DFD-1C4B-AA11-E6F3F5750601}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/gantt_chart_project_plan.xlsx
+++ b/gantt_chart_project_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielklass/Dropbox/GaTech/cse6242_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADB0EB-3899-7A44-AED4-B0859D03F96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AE66E-2E51-2F4E-8480-DE79A06F07BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="440" windowWidth="24840" windowHeight="28360" xr2:uid="{7361172A-1EC7-8B42-8F6F-CEFE35A9BD9E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Done</t>
   </si>
@@ -73,15 +73,6 @@
     <t>Start_Date_DateFormat</t>
   </si>
   <si>
-    <t>&gt;Slides: Rocko</t>
-  </si>
-  <si>
-    <t>&gt;Video: Daniel</t>
-  </si>
-  <si>
-    <t>&gt;Paper: All</t>
-  </si>
-  <si>
     <t>Experimental Coding (Daniel, Yi: Done)</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>==========Progress Report (All)==========</t>
   </si>
   <si>
-    <t>&gt;LaTeX Compile &amp; Submission: Rocko</t>
-  </si>
-  <si>
     <t>============Algorithm Polish============</t>
   </si>
   <si>
@@ -142,30 +130,12 @@
     <t>&gt;Plot projected movies (All)</t>
   </si>
   <si>
-    <t>&gt;Embed Movies in Taste Space</t>
-  </si>
-  <si>
-    <t>&gt;Implement TSNE (Rocko, Jonathan)</t>
-  </si>
-  <si>
-    <t>&gt;Pre-cluster movies (Rocko, Jonathan)</t>
-  </si>
-  <si>
-    <t>&gt;Understand MovieExplorer Code/Algo</t>
-  </si>
-  <si>
     <t>&gt;Implement Exploration Code (no UI) (Yi, Rocko)</t>
   </si>
   <si>
     <t>=======Implement MovieExplorer========</t>
   </si>
   <si>
-    <t>&gt;Implement Matrix Factor Algo (Jonathan)</t>
-  </si>
-  <si>
-    <t>&gt;Implement Word2Vec Algo (Daniel, Yi)</t>
-  </si>
-  <si>
     <t>&gt;GUI initial build (All)</t>
   </si>
   <si>
@@ -254,6 +224,36 @@
   </si>
   <si>
     <t>WIP</t>
+  </si>
+  <si>
+    <t>&gt;Understand MovieExplorer Code/Algo (All: Done)</t>
+  </si>
+  <si>
+    <t>&gt;LaTeX Compile &amp; Submission (Rocko: Done)</t>
+  </si>
+  <si>
+    <t>&gt;Paper (All, Done)</t>
+  </si>
+  <si>
+    <t>&gt;Slides (Rocko: Done)</t>
+  </si>
+  <si>
+    <t>&gt;Video (Daniel: Done)</t>
+  </si>
+  <si>
+    <t>&gt;Implement Matrix Factor Algo (Jonathan: Done)</t>
+  </si>
+  <si>
+    <t>&gt;Implement Word2Vec Algo (Daniel, Yi: Done)</t>
+  </si>
+  <si>
+    <t>&gt;Embed Movies in Taste Space (Daniel: Done)</t>
+  </si>
+  <si>
+    <t>&gt;Implement TSNE (Rocko, Jonathan, Daniel: Done)</t>
+  </si>
+  <si>
+    <t>&gt;Pre-cluster movies (Rocko, Jonathan, Daniel: Done)</t>
   </si>
 </sst>
 </file>
@@ -466,22 +466,22 @@
                   <c:v>========Project Proposal Due (All)========</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>&gt;LaTeX Compile &amp; Submission: Rocko</c:v>
+                  <c:v>&gt;LaTeX Compile &amp; Submission (Rocko: Done)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;Paper: All</c:v>
+                  <c:v>&gt;Paper (All, Done)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>&gt;Slides: Rocko</c:v>
+                  <c:v>&gt;Slides (Rocko: Done)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>&gt;Video: Daniel</c:v>
+                  <c:v>&gt;Video (Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>=======Implement MovieExplorer========</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>&gt;Understand MovieExplorer Code/Algo</c:v>
+                  <c:v>&gt;Understand MovieExplorer Code/Algo (All: Done)</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>&gt;Implement Exploration Code (no UI) (Yi, Rocko)</c:v>
@@ -490,22 +490,22 @@
                   <c:v>======Collaborative Filtering Engine======</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>&gt;Implement Matrix Factor Algo (Jonathan)</c:v>
+                  <c:v>&gt;Implement Matrix Factor Algo (Jonathan: Done)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>&gt;Implement Word2Vec Algo (Daniel, Yi)</c:v>
+                  <c:v>&gt;Implement Word2Vec Algo (Daniel, Yi: Done)</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>=======Visualization Preprocessing=======</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>&gt;Embed Movies in Taste Space</c:v>
+                  <c:v>&gt;Embed Movies in Taste Space (Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>&gt;Implement TSNE (Rocko, Jonathan)</c:v>
+                  <c:v>&gt;Implement TSNE (Rocko, Jonathan, Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>&gt;Pre-cluster movies (Rocko, Jonathan)</c:v>
+                  <c:v>&gt;Pre-cluster movies (Rocko, Jonathan, Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>==========Progress Report (All)==========</c:v>
@@ -701,22 +701,22 @@
                   <c:v>========Project Proposal Due (All)========</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>&gt;LaTeX Compile &amp; Submission: Rocko</c:v>
+                  <c:v>&gt;LaTeX Compile &amp; Submission (Rocko: Done)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;Paper: All</c:v>
+                  <c:v>&gt;Paper (All, Done)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>&gt;Slides: Rocko</c:v>
+                  <c:v>&gt;Slides (Rocko: Done)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>&gt;Video: Daniel</c:v>
+                  <c:v>&gt;Video (Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>=======Implement MovieExplorer========</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>&gt;Understand MovieExplorer Code/Algo</c:v>
+                  <c:v>&gt;Understand MovieExplorer Code/Algo (All: Done)</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>&gt;Implement Exploration Code (no UI) (Yi, Rocko)</c:v>
@@ -725,22 +725,22 @@
                   <c:v>======Collaborative Filtering Engine======</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>&gt;Implement Matrix Factor Algo (Jonathan)</c:v>
+                  <c:v>&gt;Implement Matrix Factor Algo (Jonathan: Done)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>&gt;Implement Word2Vec Algo (Daniel, Yi)</c:v>
+                  <c:v>&gt;Implement Word2Vec Algo (Daniel, Yi: Done)</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>=======Visualization Preprocessing=======</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>&gt;Embed Movies in Taste Space</c:v>
+                  <c:v>&gt;Embed Movies in Taste Space (Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>&gt;Implement TSNE (Rocko, Jonathan)</c:v>
+                  <c:v>&gt;Implement TSNE (Rocko, Jonathan, Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>&gt;Pre-cluster movies (Rocko, Jonathan)</c:v>
+                  <c:v>&gt;Pre-cluster movies (Rocko, Jonathan, Daniel: Done)</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>==========Progress Report (All)==========</c:v>
@@ -2000,12 +2000,12 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="2"/>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>0</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>0</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1">
         <v>43758</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1">
         <v>43768</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1">
         <v>43749</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>43777</v>
@@ -2683,7 +2683,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>43777</v>
@@ -2706,7 +2709,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
       </c>
       <c r="C27" s="1">
         <v>43777</v>
@@ -2729,7 +2735,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="1">
         <v>43784</v>
@@ -2752,7 +2761,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>43784</v>
@@ -2778,7 +2787,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
         <v>43784</v>
@@ -2804,7 +2813,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
         <v>43784</v>
@@ -2830,7 +2839,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>43784</v>
@@ -2865,7 +2874,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="8">
         <f ca="1">NOW()+13.5/24</f>
-        <v>43765.106666435182</v>
+        <v>43765.110000347224</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2875,7 +2884,7 @@
       </c>
       <c r="B35" s="9">
         <f ca="1">NOW()+13.75/24</f>
-        <v>43765.117083101846</v>
+        <v>43765.120417013888</v>
       </c>
       <c r="C35" s="10"/>
     </row>
@@ -2905,21 +2914,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>43751</v>
@@ -2927,10 +2936,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>43754</v>
@@ -2938,15 +2947,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>43758</v>
@@ -2954,10 +2963,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>43758</v>
@@ -2965,15 +2974,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>43751</v>
@@ -2981,10 +2990,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>43761</v>
@@ -2992,15 +3001,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>43768</v>
@@ -3008,10 +3017,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>43772</v>
@@ -3019,10 +3028,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>43772</v>
@@ -3035,10 +3044,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>43777</v>
@@ -3046,15 +3055,15 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1">
         <v>43784</v>
@@ -3062,10 +3071,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>43791</v>
@@ -3073,10 +3082,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>43798</v>
@@ -3089,10 +3098,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1">
         <v>43798</v>
